--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N2">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P2">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q2">
-        <v>1.131599417152667</v>
+        <v>142.4935164187013</v>
       </c>
       <c r="R2">
-        <v>10.184394754374</v>
+        <v>1282.441647768312</v>
       </c>
       <c r="S2">
-        <v>5.239190703875045E-05</v>
+        <v>0.005485189875617521</v>
       </c>
       <c r="T2">
-        <v>5.239190703875045E-05</v>
+        <v>0.00548518987561752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N3">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P3">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q3">
-        <v>162.4868685037413</v>
+        <v>362.0784870549554</v>
       </c>
       <c r="R3">
-        <v>1462.381816533672</v>
+        <v>3258.706383494598</v>
       </c>
       <c r="S3">
-        <v>0.0075229774605983</v>
+        <v>0.01393796224059</v>
       </c>
       <c r="T3">
-        <v>0.0075229774605983</v>
+        <v>0.01393796224059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N4">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P4">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q4">
-        <v>295.6867470286236</v>
+        <v>1.926050089006444</v>
       </c>
       <c r="R4">
-        <v>2661.180723257612</v>
+        <v>17.334450801058</v>
       </c>
       <c r="S4">
-        <v>0.01368999694423151</v>
+        <v>7.414197300814044E-05</v>
       </c>
       <c r="T4">
-        <v>0.01368999694423151</v>
+        <v>7.414197300814044E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,43 +726,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H5">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I5">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J5">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N5">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P5">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q5">
-        <v>46.90649617821334</v>
+        <v>6735.324851667307</v>
       </c>
       <c r="R5">
-        <v>422.15846560392</v>
+        <v>60617.92366500576</v>
       </c>
       <c r="S5">
-        <v>0.002171723270648262</v>
+        <v>0.2592716961016189</v>
       </c>
       <c r="T5">
-        <v>0.002171723270648262</v>
+        <v>0.2592716961016189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,13 +788,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N6">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P6">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q6">
-        <v>6735.324851667307</v>
+        <v>17114.57681309123</v>
       </c>
       <c r="R6">
-        <v>60617.92366500576</v>
+        <v>154031.191317821</v>
       </c>
       <c r="S6">
-        <v>0.3118387197408143</v>
+        <v>0.6588138591850038</v>
       </c>
       <c r="T6">
-        <v>0.3118387197408143</v>
+        <v>0.6588138591850039</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,43 +850,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N7">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P7">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q7">
-        <v>12256.65996218455</v>
+        <v>91.03974241131554</v>
       </c>
       <c r="R7">
-        <v>110309.939659661</v>
+        <v>819.3576817018399</v>
       </c>
       <c r="S7">
-        <v>0.5674709438788212</v>
+        <v>0.003504512246620618</v>
       </c>
       <c r="T7">
-        <v>0.5674709438788212</v>
+        <v>0.003504512246620618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H8">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I8">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J8">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N8">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P8">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q8">
-        <v>2.371655755204667</v>
+        <v>373.355988569028</v>
       </c>
       <c r="R8">
-        <v>21.344901796842</v>
+        <v>3360.203897121252</v>
       </c>
       <c r="S8">
-        <v>0.0001098052596803669</v>
+        <v>0.01437208190218559</v>
       </c>
       <c r="T8">
-        <v>0.0001098052596803669</v>
+        <v>0.01437208190218559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H9">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I9">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J9">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N9">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P9">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q9">
-        <v>340.5471149867974</v>
+        <v>948.704017358637</v>
       </c>
       <c r="R9">
-        <v>3064.924034881176</v>
+        <v>8538.336156227733</v>
       </c>
       <c r="S9">
-        <v>0.01576698655041447</v>
+        <v>0.0365197084173459</v>
       </c>
       <c r="T9">
-        <v>0.01576698655041447</v>
+        <v>0.03651970841734591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N10">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O10">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P10">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q10">
-        <v>619.7132701717996</v>
+        <v>5.046561788127</v>
       </c>
       <c r="R10">
-        <v>5577.419431546196</v>
+        <v>45.419056093143</v>
       </c>
       <c r="S10">
-        <v>0.02869209682275813</v>
+        <v>0.0001942639238796936</v>
       </c>
       <c r="T10">
-        <v>0.02869209682275812</v>
+        <v>0.0001942639238796936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H11">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I11">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J11">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.027767</v>
+        <v>3.987076</v>
       </c>
       <c r="N11">
-        <v>0.083301</v>
+        <v>11.961228</v>
       </c>
       <c r="O11">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="P11">
-        <v>0.002463719941166009</v>
+        <v>0.2813308272685638</v>
       </c>
       <c r="Q11">
-        <v>2.803506326589666</v>
+        <v>57.19960368427867</v>
       </c>
       <c r="R11">
-        <v>25.23155693930699</v>
+        <v>514.796433158508</v>
       </c>
       <c r="S11">
-        <v>0.0001297995037986296</v>
+        <v>0.002201859389141738</v>
       </c>
       <c r="T11">
-        <v>0.0001297995037986296</v>
+        <v>0.002201859389141738</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H12">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I12">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J12">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.987076</v>
+        <v>10.131229</v>
       </c>
       <c r="N12">
-        <v>11.961228</v>
+        <v>30.393687</v>
       </c>
       <c r="O12">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918803</v>
       </c>
       <c r="P12">
-        <v>0.3537666527944829</v>
+        <v>0.7148664925918804</v>
       </c>
       <c r="Q12">
-        <v>402.5567324735773</v>
+        <v>145.3451811890897</v>
       </c>
       <c r="R12">
-        <v>3623.010592262196</v>
+        <v>1308.106630701807</v>
       </c>
       <c r="S12">
-        <v>0.01863796904265584</v>
+        <v>0.005594962748940591</v>
       </c>
       <c r="T12">
-        <v>0.01863796904265584</v>
+        <v>0.005594962748940592</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H13">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I13">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J13">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>7.255512666666667</v>
+        <v>0.05389233333333333</v>
       </c>
       <c r="N13">
-        <v>21.766538</v>
+        <v>0.161677</v>
       </c>
       <c r="O13">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="P13">
-        <v>0.6437696272643511</v>
+        <v>0.00380268013955587</v>
       </c>
       <c r="Q13">
-        <v>732.5557555245962</v>
+        <v>0.7731530846885555</v>
       </c>
       <c r="R13">
-        <v>6593.001799721365</v>
+        <v>6.958377762196999</v>
       </c>
       <c r="S13">
-        <v>0.03391658961854017</v>
+        <v>2.976199604741827E-05</v>
       </c>
       <c r="T13">
-        <v>0.03391658961854017</v>
+        <v>2.976199604741827E-05</v>
       </c>
     </row>
   </sheetData>
